--- a/Projects/New_geodome/plastic_geodome_researches.xlsx
+++ b/Projects/New_geodome/plastic_geodome_researches.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanstuder/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeanstuder/Documents/GitHub/Docs/Projects/New_geodome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B910A40-E8FF-A448-BDCF-2BF9B7F49012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3312040B-F5C3-594D-AEDA-EADDA6985F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{946043D0-308E-554B-A8D5-D2459E03887B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" activeTab="1" xr2:uid="{946043D0-308E-554B-A8D5-D2459E03887B}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="5" r:id="rId1"/>
@@ -575,7 +575,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -637,7 +637,15 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -689,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -751,15 +759,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -767,14 +766,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1467,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDAD028B-6615-CB4E-A27A-2B463C8462E3}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2115,50 +2118,49 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="22">
+    <row r="24" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="19">
         <v>12</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="20">
         <f>6*33</f>
         <v>198</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="21">
         <v>1</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="20">
         <f t="shared" si="6"/>
         <v>198</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="20">
         <f t="shared" si="7"/>
         <v>122.33</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="20">
         <v>99.18</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="24">
+      <c r="L24" s="20"/>
+      <c r="N24" s="20">
         <f>K24*G24+L24</f>
         <v>99.18</v>
       </c>
       <c r="O24" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="P24" s="20" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2209,8 +2211,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="26" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:16" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
       <c r="B27" s="22" t="s">
         <v>90</v>
       </c>
@@ -2245,15 +2247,15 @@
         <f>H27*K27</f>
         <v>459.55874999999992</v>
       </c>
-      <c r="O27" s="31" t="s">
+      <c r="O27" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="P27" s="31" t="s">
+      <c r="P27" s="27" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="4" t="s">
         <v>91</v>
       </c>
@@ -2427,7 +2429,7 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="1:16" ht="102" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="4" t="s">
         <v>109</v>
       </c>
@@ -2467,7 +2469,7 @@
       <c r="O33" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P33" s="28" t="s">
+      <c r="P33" s="25" t="s">
         <v>115</v>
       </c>
     </row>
